--- a/Excel Data/Kanban Pallet Weight List.xlsx
+++ b/Excel Data/Kanban Pallet Weight List.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="684" documentId="11_F25DC773A252ABEACE02EC95335E46045BDE589C" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{7369654D-38AE-43F8-961E-C2CA70F4DBAA}"/>
+  <xr:revisionPtr revIDLastSave="727" documentId="11_F25DC773A252ABEACE02EC95335E46045BDE589C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4890A61F-E844-4E98-87A3-5C87282B431C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="6735" yWindow="3180" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="144">
   <si>
     <t>Part Number</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>A1531658A0100</t>
-  </si>
-  <si>
-    <t>A5400700L0200</t>
   </si>
   <si>
     <t>A1540078L0200</t>
@@ -289,12 +286,6 @@
     <t>A2C7449700000</t>
   </si>
   <si>
-    <t>A2C7471630200</t>
-  </si>
-  <si>
-    <t>Trend Tech</t>
-  </si>
-  <si>
     <t>A2C7473260100</t>
   </si>
   <si>
@@ -403,9 +394,6 @@
     <t>A2C7363430200</t>
   </si>
   <si>
-    <t>A2C7471640200</t>
-  </si>
-  <si>
     <t>A2C7716160300</t>
   </si>
   <si>
@@ -443,6 +431,27 @@
   </si>
   <si>
     <t>A2C0153000000</t>
+  </si>
+  <si>
+    <t>A1540077L0200</t>
+  </si>
+  <si>
+    <t>A2C1039870000</t>
+  </si>
+  <si>
+    <t>A2C1836950000</t>
+  </si>
+  <si>
+    <t>A2C7600840000</t>
+  </si>
+  <si>
+    <t>A2C9175080000</t>
+  </si>
+  <si>
+    <t>A2C9137910000</t>
+  </si>
+  <si>
+    <t>FRK</t>
   </si>
 </sst>
 </file>
@@ -790,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S978"/>
+  <dimension ref="A1:S981"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection sqref="A1:E114"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E117" sqref="A1:E117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,13 +1130,13 @@
         <v>9242500089000</v>
       </c>
       <c r="C11" s="1">
-        <v>1440</v>
+        <v>2160</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="1">
-        <v>340</v>
+        <v>510</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1242,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="C15" s="1">
         <v>900</v>
@@ -1273,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1">
         <v>720</v>
@@ -1304,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1">
         <v>351</v>
@@ -1335,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1">
         <v>300</v>
@@ -1366,13 +1375,13 @@
         <v>0</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1">
         <v>720</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19" s="1">
         <v>300</v>
@@ -1397,13 +1406,13 @@
         <v>0</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="1">
         <v>400</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20" s="1">
         <v>800</v>
@@ -1428,13 +1437,13 @@
         <v>0</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="1">
         <v>360</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21" s="1">
         <v>500</v>
@@ -1459,13 +1468,13 @@
         <v>0</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="1">
         <v>360</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E22" s="1">
         <v>600</v>
@@ -1490,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="1">
         <v>672</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E23" s="1">
         <v>600</v>
@@ -1521,16 +1530,16 @@
         <v>0</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>131</v>
+        <v>28</v>
       </c>
       <c r="C24" s="1">
-        <v>960</v>
+        <v>144</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="E24" s="1">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1552,16 +1561,16 @@
         <v>0</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="C25" s="1">
-        <v>960</v>
+        <v>360</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>132</v>
+        <v>27</v>
       </c>
       <c r="E25" s="1">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1583,13 +1592,13 @@
         <v>0</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C26" s="1">
         <v>960</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E26" s="1">
         <v>450</v>
@@ -1614,16 +1623,16 @@
         <v>0</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="C27" s="1">
-        <v>144</v>
+        <v>960</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="E27" s="1">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -1645,25 +1654,20 @@
         <v>0</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="C28" s="1">
-        <v>360</v>
+        <v>960</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="E28" s="1">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -1676,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C29" s="1">
         <v>264</v>
@@ -1690,11 +1694,6 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -1706,17 +1705,17 @@
       <c r="A30" s="1">
         <v>0</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>123</v>
+      <c r="B30" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="C30" s="1">
-        <v>4032</v>
+        <v>648</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E30" s="1">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -1737,17 +1736,17 @@
       <c r="A31" s="1">
         <v>0</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="1">
-        <v>4800</v>
+      <c r="B31" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2304</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="E31" s="1">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1769,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C32" s="1">
         <v>4032</v>
@@ -1778,7 +1777,7 @@
         <v>6</v>
       </c>
       <c r="E32" s="1">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1797,19 +1796,19 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C33" s="1">
-        <v>520</v>
+        <v>4800</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E33" s="1">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -1828,19 +1827,19 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="C34" s="1">
-        <v>0</v>
+        <v>4032</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E34" s="1">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -1859,19 +1858,19 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C35" s="1">
-        <v>1200</v>
+        <v>520</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="E35" s="1">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -1890,19 +1889,19 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
+        <v>1</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="1">
         <v>0</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="1">
-        <v>396</v>
-      </c>
       <c r="D36" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E36" s="1">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -1924,16 +1923,16 @@
         <v>0</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C37" s="1">
-        <v>18144</v>
+        <v>1200</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E37" s="1">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -1955,16 +1954,16 @@
         <v>0</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C38" s="1">
-        <v>1280</v>
+        <v>396</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="E38" s="1">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -1986,16 +1985,16 @@
         <v>0</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C39" s="1">
-        <v>640</v>
+        <v>18144</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E39" s="1">
-        <v>1050</v>
+        <v>1100</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -2017,16 +2016,16 @@
         <v>0</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C40" s="1">
-        <v>3276</v>
+        <v>1280</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E40" s="1">
-        <v>620</v>
+        <v>420</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -2048,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C41" s="1">
-        <v>3276</v>
+        <v>640</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="E41" s="1">
-        <v>620</v>
+        <v>1050</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -2079,13 +2078,13 @@
         <v>0</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C42" s="1">
         <v>3276</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E42" s="1">
         <v>620</v>
@@ -2110,16 +2109,16 @@
         <v>0</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C43" s="1">
-        <v>1440</v>
+        <v>3276</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E43" s="1">
-        <v>350</v>
+        <v>620</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -2141,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>125</v>
+        <v>46</v>
       </c>
       <c r="C44" s="1">
-        <v>1728</v>
+        <v>3276</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E44" s="1">
-        <v>300</v>
+        <v>620</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -2172,16 +2171,16 @@
         <v>0</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C45" s="1">
-        <v>4800</v>
+        <v>1440</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E45" s="1">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -2203,16 +2202,16 @@
         <v>0</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="C46" s="1">
-        <v>11520</v>
+        <v>1728</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E46" s="1">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -2234,16 +2233,16 @@
         <v>0</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C47" s="1">
-        <v>3600</v>
+        <v>4800</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E47" s="1">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -2265,16 +2264,16 @@
         <v>0</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C48" s="1">
-        <v>3600</v>
+        <v>11520</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E48" s="1">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -2295,17 +2294,17 @@
       <c r="A49" s="1">
         <v>0</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>54</v>
+      <c r="B49" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="C49" s="1">
-        <v>576</v>
+        <v>3600</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E49" s="1">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -2324,19 +2323,19 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>1</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>56</v>
+        <v>0</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="C50" s="1">
-        <v>384</v>
+        <v>3600</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="E50" s="1">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -2355,19 +2354,19 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C51" s="1">
-        <v>720</v>
+        <v>576</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E51" s="1">
-        <v>740</v>
+        <v>300</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -2386,19 +2385,19 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="C52" s="1">
-        <v>576</v>
+        <v>384</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="E52" s="1">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -2417,19 +2416,19 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C53" s="1">
-        <v>1440</v>
+        <v>720</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E53" s="1">
-        <v>350</v>
+        <v>740</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -2451,16 +2450,16 @@
         <v>0</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="C54" s="1">
-        <v>1760</v>
+        <v>576</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="E54" s="1">
-        <v>700</v>
+        <v>340</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -2482,16 +2481,16 @@
         <v>0</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C55" s="1">
-        <v>3600</v>
+        <v>1440</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E55" s="1">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -2513,16 +2512,16 @@
         <v>0</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C56" s="1">
-        <v>2520</v>
+        <v>1760</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E56" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -2544,16 +2543,16 @@
         <v>0</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C57" s="1">
-        <v>1296</v>
+        <v>3600</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E57" s="1">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -2575,16 +2574,16 @@
         <v>0</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C58" s="1">
-        <v>420</v>
+        <v>2520</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E58" s="1">
-        <v>950</v>
+        <v>400</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -2606,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="C59" s="1">
-        <v>1680</v>
+        <v>1296</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="E59" s="1">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -2637,16 +2636,16 @@
         <v>0</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C60" s="1">
-        <v>240</v>
+        <v>420</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E60" s="1">
-        <v>300</v>
+        <v>950</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -2668,16 +2667,16 @@
         <v>0</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="C61" s="1">
-        <v>990</v>
+        <v>1680</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="E61" s="1">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -2696,19 +2695,19 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C62" s="1">
-        <v>384</v>
+        <v>240</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E62" s="1">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -2727,19 +2726,19 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C63" s="1">
-        <v>520</v>
+        <v>990</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="E63" s="1">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -2758,19 +2757,19 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C64" s="1">
-        <v>192</v>
+        <v>384</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E64" s="1">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -2789,19 +2788,19 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C65" s="1">
-        <v>396</v>
+        <v>520</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E65" s="1">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -2823,16 +2822,16 @@
         <v>0</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C66" s="1">
-        <v>800</v>
+        <v>192</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E66" s="1">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -2854,16 +2853,16 @@
         <v>0</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="C67" s="1">
-        <v>7560</v>
+        <v>396</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E67" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -2885,16 +2884,16 @@
         <v>0</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>136</v>
+        <v>71</v>
       </c>
       <c r="C68" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>137</v>
+        <v>9</v>
       </c>
       <c r="E68" s="1">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
@@ -2916,16 +2915,16 @@
         <v>0</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="C69" s="1">
-        <v>1440</v>
+        <v>7560</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E69" s="1">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
@@ -2947,16 +2946,16 @@
         <v>0</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="C70" s="1">
-        <v>8400</v>
+        <v>500</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="E70" s="1">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
@@ -2978,16 +2977,16 @@
         <v>0</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C71" s="1">
-        <v>10500</v>
+        <v>1440</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E71" s="1">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
@@ -3006,19 +3005,19 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C72" s="1">
-        <v>1632</v>
+        <v>8400</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="E72" s="1">
-        <v>520</v>
+        <v>700</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
@@ -3037,19 +3036,19 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C73" s="1">
-        <v>1280</v>
+        <v>10500</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="E73" s="1">
-        <v>420</v>
+        <v>500</v>
       </c>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
@@ -3071,16 +3070,16 @@
         <v>1</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C74" s="1">
-        <v>1900</v>
+        <v>1632</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E74" s="1">
-        <v>1650</v>
+        <v>520</v>
       </c>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
@@ -3102,16 +3101,16 @@
         <v>1</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C75" s="1">
-        <v>2160</v>
+        <v>1280</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="E75" s="1">
-        <v>1450</v>
+        <v>420</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
@@ -3130,19 +3129,19 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C76" s="1">
-        <v>420</v>
+        <v>1900</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="E76" s="1">
-        <v>550</v>
+        <v>1650</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
@@ -3161,19 +3160,19 @@
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C77" s="1">
-        <v>1344</v>
+        <v>2160</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="E77" s="1">
-        <v>400</v>
+        <v>1450</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
@@ -3195,16 +3194,16 @@
         <v>0</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C78" s="1">
-        <v>2736</v>
+        <v>420</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E78" s="1">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
@@ -3226,16 +3225,16 @@
         <v>0</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C79" s="1">
-        <v>4212</v>
+        <v>1344</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E79" s="1">
-        <v>475</v>
+        <v>400</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
@@ -3257,16 +3256,16 @@
         <v>0</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C80" s="1">
-        <v>4212</v>
+        <v>2736</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="E80" s="1">
-        <v>475</v>
+        <v>250</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
@@ -3288,16 +3287,16 @@
         <v>0</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C81" s="1">
-        <v>1440</v>
+        <v>4212</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E81" s="1">
-        <v>300</v>
+        <v>475</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
@@ -3319,21 +3318,21 @@
         <v>0</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C82" s="1">
-        <v>3600</v>
+        <v>4212</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E82" s="1">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
-      <c r="I82" s="5"/>
+      <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
@@ -3350,16 +3349,16 @@
         <v>0</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C83" s="1">
-        <v>3600</v>
+        <v>1440</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="E83" s="1">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
@@ -3381,21 +3380,21 @@
         <v>0</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C84" s="1">
-        <v>960</v>
+        <v>3600</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="E84" s="1">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
+      <c r="I84" s="5"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
@@ -3412,16 +3411,16 @@
         <v>0</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="C85" s="1">
-        <v>960</v>
+        <v>3600</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="E85" s="1">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
@@ -3443,13 +3442,13 @@
         <v>0</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C86" s="1">
         <v>432</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E86" s="1">
         <v>250</v>
@@ -3474,13 +3473,13 @@
         <v>0</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C87" s="1">
         <v>1800</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E87" s="1">
         <v>400</v>
@@ -3505,13 +3504,13 @@
         <v>0</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C88" s="1">
         <v>1800</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E88" s="1">
         <v>450</v>
@@ -3536,7 +3535,7 @@
         <v>1</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C89" s="1">
         <v>255</v>
@@ -3567,13 +3566,13 @@
         <v>1</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C90" s="1">
         <v>576</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E90" s="1">
         <v>450</v>
@@ -3598,13 +3597,13 @@
         <v>0</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C91" s="1">
         <v>576</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E91" s="1">
         <v>275</v>
@@ -3629,7 +3628,7 @@
         <v>0</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C92" s="1">
         <v>180</v>
@@ -3660,13 +3659,13 @@
         <v>0</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C93" s="1">
         <v>3276</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E93" s="1">
         <v>620</v>
@@ -3691,13 +3690,13 @@
         <v>0</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C94" s="1">
         <v>3276</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E94" s="1">
         <v>620</v>
@@ -3722,13 +3721,13 @@
         <v>0</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C95" s="1">
         <v>408</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E95" s="1">
         <v>350</v>
@@ -3753,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C96" s="1">
         <v>312</v>
@@ -3784,13 +3783,13 @@
         <v>0</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C97" s="1">
         <v>180</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E97" s="1">
         <v>700</v>
@@ -3815,13 +3814,13 @@
         <v>0</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C98" s="1">
         <v>600</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E98" s="1">
         <v>500</v>
@@ -3846,13 +3845,13 @@
         <v>0</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C99" s="1">
         <v>336</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E99" s="1">
         <v>125</v>
@@ -3877,13 +3876,13 @@
         <v>0</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C100" s="1">
         <v>336</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E100" s="1">
         <v>125</v>
@@ -3908,13 +3907,13 @@
         <v>0</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C101" s="1">
         <v>528</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E101" s="1">
         <v>350</v>
@@ -3939,13 +3938,13 @@
         <v>0</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="C102" s="1">
         <v>1872</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E102" s="1">
         <v>400</v>
@@ -3970,16 +3969,16 @@
         <v>0</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C103" s="1">
-        <v>960</v>
+        <v>1872</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="E103" s="1">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
@@ -4001,16 +4000,16 @@
         <v>0</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C104" s="1">
-        <v>660</v>
+        <v>960</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="E104" s="1">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
@@ -4032,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C105" s="1">
-        <v>2376</v>
+        <v>660</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="E105" s="1">
         <v>500</v>
@@ -4063,16 +4062,16 @@
         <v>0</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C106" s="1">
-        <v>240</v>
+        <v>2376</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="E106" s="1">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
@@ -4094,13 +4093,13 @@
         <v>0</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C107" s="1">
         <v>240</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E107" s="1">
         <v>80</v>
@@ -4125,16 +4124,16 @@
         <v>0</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C108" s="1">
-        <v>4800</v>
+        <v>240</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="E108" s="1">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
@@ -4156,16 +4155,16 @@
         <v>0</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C109" s="1">
-        <v>15600</v>
+        <v>4800</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="E109" s="1">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
@@ -4187,16 +4186,16 @@
         <v>0</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="C110" s="1">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="E110" s="1">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
@@ -4218,16 +4217,16 @@
         <v>0</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="C111" s="1">
-        <v>768</v>
+        <v>840</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E111" s="1">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
@@ -4249,16 +4248,16 @@
         <v>0</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C112" s="1">
-        <v>1280</v>
+        <v>15600</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="E112" s="1">
-        <v>400</v>
+        <v>175</v>
       </c>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
@@ -4277,19 +4276,19 @@
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C113" s="1">
-        <v>960</v>
+        <v>192</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="E113" s="1">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
@@ -4308,19 +4307,19 @@
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C114" s="1">
-        <v>1280</v>
+        <v>768</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="E114" s="1">
-        <v>420</v>
+        <v>650</v>
       </c>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
@@ -4338,6 +4337,21 @@
       <c r="S114" s="1"/>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>0</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C115" s="1">
+        <v>1280</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E115" s="1">
+        <v>400</v>
+      </c>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
@@ -4354,6 +4368,21 @@
       <c r="S115" s="1"/>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>1</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C116" s="1">
+        <v>960</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E116" s="1">
+        <v>380</v>
+      </c>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
@@ -4370,11 +4399,21 @@
       <c r="S116" s="1"/>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A117" s="1"/>
-      <c r="B117" s="2"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
+      <c r="A117" s="1">
+        <v>1</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C117" s="1">
+        <v>1280</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E117" s="1">
+        <v>420</v>
+      </c>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
@@ -4391,11 +4430,6 @@
       <c r="S117" s="1"/>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A118" s="1"/>
-      <c r="B118" s="2"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
@@ -4412,11 +4446,6 @@
       <c r="S118" s="1"/>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A119" s="1"/>
-      <c r="B119" s="2"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
@@ -22471,6 +22500,69 @@
       <c r="R978" s="1"/>
       <c r="S978" s="1"/>
     </row>
+    <row r="979" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A979" s="1"/>
+      <c r="B979" s="2"/>
+      <c r="C979" s="1"/>
+      <c r="D979" s="1"/>
+      <c r="E979" s="1"/>
+      <c r="F979" s="1"/>
+      <c r="G979" s="1"/>
+      <c r="H979" s="1"/>
+      <c r="I979" s="1"/>
+      <c r="J979" s="1"/>
+      <c r="K979" s="1"/>
+      <c r="L979" s="1"/>
+      <c r="M979" s="1"/>
+      <c r="N979" s="1"/>
+      <c r="O979" s="1"/>
+      <c r="P979" s="1"/>
+      <c r="Q979" s="1"/>
+      <c r="R979" s="1"/>
+      <c r="S979" s="1"/>
+    </row>
+    <row r="980" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A980" s="1"/>
+      <c r="B980" s="2"/>
+      <c r="C980" s="1"/>
+      <c r="D980" s="1"/>
+      <c r="E980" s="1"/>
+      <c r="F980" s="1"/>
+      <c r="G980" s="1"/>
+      <c r="H980" s="1"/>
+      <c r="I980" s="1"/>
+      <c r="J980" s="1"/>
+      <c r="K980" s="1"/>
+      <c r="L980" s="1"/>
+      <c r="M980" s="1"/>
+      <c r="N980" s="1"/>
+      <c r="O980" s="1"/>
+      <c r="P980" s="1"/>
+      <c r="Q980" s="1"/>
+      <c r="R980" s="1"/>
+      <c r="S980" s="1"/>
+    </row>
+    <row r="981" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A981" s="1"/>
+      <c r="B981" s="2"/>
+      <c r="C981" s="1"/>
+      <c r="D981" s="1"/>
+      <c r="E981" s="1"/>
+      <c r="F981" s="1"/>
+      <c r="G981" s="1"/>
+      <c r="H981" s="1"/>
+      <c r="I981" s="1"/>
+      <c r="J981" s="1"/>
+      <c r="K981" s="1"/>
+      <c r="L981" s="1"/>
+      <c r="M981" s="1"/>
+      <c r="N981" s="1"/>
+      <c r="O981" s="1"/>
+      <c r="P981" s="1"/>
+      <c r="Q981" s="1"/>
+      <c r="R981" s="1"/>
+      <c r="S981" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel Data/Kanban Pallet Weight List.xlsx
+++ b/Excel Data/Kanban Pallet Weight List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10632"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14652" windowHeight="6720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="193">
   <si>
     <t>Part Number</t>
   </si>
@@ -178,9 +178,6 @@
   </si>
   <si>
     <t>A2C7300690100</t>
-  </si>
-  <si>
-    <t>A2C7313400000</t>
   </si>
   <si>
     <t>Hatch</t>
@@ -411,9 +408,6 @@
     <t>A2C0006361400</t>
   </si>
   <si>
-    <t>A2C7331290000</t>
-  </si>
-  <si>
     <t>A2C7397770100</t>
   </si>
   <si>
@@ -518,6 +512,93 @@
   <si>
     <t>A2C9953410100</t>
   </si>
+  <si>
+    <t>A2C0305630000</t>
+  </si>
+  <si>
+    <t>NGK Europe</t>
+  </si>
+  <si>
+    <t>A2C0291490000</t>
+  </si>
+  <si>
+    <t>A2C0311520000</t>
+  </si>
+  <si>
+    <t>A2C0217450000</t>
+  </si>
+  <si>
+    <t>A2C0311490000</t>
+  </si>
+  <si>
+    <t>A2C0217460000</t>
+  </si>
+  <si>
+    <t>A2C0311360000</t>
+  </si>
+  <si>
+    <t>A2C0297790000</t>
+  </si>
+  <si>
+    <t>A2C0259430000</t>
+  </si>
+  <si>
+    <t>A2C0255240000</t>
+  </si>
+  <si>
+    <t>A2C0299660000</t>
+  </si>
+  <si>
+    <t>A2C0006354900</t>
+  </si>
+  <si>
+    <t>A2C0316190000</t>
+  </si>
+  <si>
+    <t>A2C0220280000</t>
+  </si>
+  <si>
+    <t>A2C0341510000</t>
+  </si>
+  <si>
+    <t>A2C0297810000</t>
+  </si>
+  <si>
+    <t>A2C0006355300</t>
+  </si>
+  <si>
+    <t>A2C0125550000</t>
+  </si>
+  <si>
+    <t>A2C0251720000</t>
+  </si>
+  <si>
+    <t>A2C1194820000</t>
+  </si>
+  <si>
+    <t>AVX</t>
+  </si>
+  <si>
+    <t>A2C3932570000</t>
+  </si>
+  <si>
+    <t>A2C8572180000</t>
+  </si>
+  <si>
+    <t>A2C3932610000</t>
+  </si>
+  <si>
+    <t>A2C1194800000</t>
+  </si>
+  <si>
+    <t>A2C1794160000</t>
+  </si>
+  <si>
+    <t>A2C7331290100</t>
+  </si>
+  <si>
+    <t>A2C7313400100</t>
+  </si>
 </sst>
 </file>
 
@@ -559,7 +640,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -567,11 +648,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -584,11 +674,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -897,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection sqref="A1:E134"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -944,13 +1049,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C2" s="1">
         <v>240</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E2" s="1">
         <v>145</v>
@@ -975,13 +1080,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C3" s="1">
         <v>1623</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E3" s="1">
         <v>1623</v>
@@ -1409,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C17" s="1">
         <v>900</v>
@@ -1750,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C28" s="1">
         <v>960</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E28" s="1">
         <v>450</v>
@@ -1781,13 +1886,13 @@
         <v>0</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C29" s="1">
         <v>960</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E29" s="1">
         <v>450</v>
@@ -1812,13 +1917,13 @@
         <v>0</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C30" s="1">
         <v>960</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E30" s="1">
         <v>450</v>
@@ -1838,13 +1943,13 @@
         <v>0</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C31" s="1">
         <v>960</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E31" s="1">
         <v>450</v>
@@ -1864,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C32" s="1">
         <v>264</v>
@@ -1890,13 +1995,13 @@
         <v>0</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C33" s="1">
         <v>648</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E33" s="1">
         <v>400</v>
@@ -1921,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C34" s="2">
         <v>2304</v>
@@ -1952,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C35" s="1">
         <v>4032</v>
@@ -2014,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C37" s="1">
         <v>4032</v>
@@ -2045,13 +2150,13 @@
         <v>0</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C38" s="1">
         <v>1896</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E38" s="1">
         <v>1896</v>
@@ -2417,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C50" s="1">
         <v>1728</v>
@@ -2572,13 +2677,13 @@
         <v>0</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>53</v>
+        <v>192</v>
       </c>
       <c r="C55" s="1">
         <v>576</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E55" s="1">
         <v>300</v>
@@ -2603,7 +2708,7 @@
         <v>1</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C56" s="1">
         <v>384</v>
@@ -2634,13 +2739,13 @@
         <v>1</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C57" s="1">
         <v>720</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E57" s="1">
         <v>740</v>
@@ -2665,13 +2770,13 @@
         <v>0</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="C58" s="1">
         <v>576</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E58" s="1">
         <v>340</v>
@@ -2696,13 +2801,13 @@
         <v>0</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C59" s="1">
         <v>1440</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E59" s="1">
         <v>350</v>
@@ -2727,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C60" s="1">
         <v>1760</v>
@@ -2758,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C61" s="1">
         <v>3600</v>
@@ -2789,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C62" s="1">
         <v>2520</v>
@@ -2820,13 +2925,13 @@
         <v>0</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C63" s="1">
         <v>1296</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E63" s="1">
         <v>400</v>
@@ -2851,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C64" s="1">
         <v>420</v>
@@ -2882,7 +2987,7 @@
         <v>0</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C65" s="1">
         <v>1680</v>
@@ -2913,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C66" s="1">
         <v>240</v>
@@ -2944,13 +3049,13 @@
         <v>0</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C67" s="1">
         <v>990</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E67" s="1">
         <v>300</v>
@@ -2975,7 +3080,7 @@
         <v>1</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C68" s="1">
         <v>384</v>
@@ -3006,7 +3111,7 @@
         <v>1</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C69" s="1">
         <v>520</v>
@@ -3037,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C70" s="1">
         <v>192</v>
@@ -3068,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C71" s="1">
         <v>396</v>
@@ -3099,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C72" s="1">
         <v>800</v>
@@ -3130,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C73" s="1">
         <v>7560</v>
@@ -3161,13 +3266,13 @@
         <v>0</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C74" s="1">
         <v>500</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E74" s="1">
         <v>500</v>
@@ -3192,13 +3297,13 @@
         <v>0</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C75" s="1">
         <v>800</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E75" s="1">
         <v>285</v>
@@ -3223,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C76" s="1">
         <v>1440</v>
@@ -3254,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C77" s="1">
         <v>8400</v>
@@ -3285,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C78" s="1">
         <v>10500</v>
@@ -3316,7 +3421,7 @@
         <v>1</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C79" s="1">
         <v>1632</v>
@@ -3347,7 +3452,7 @@
         <v>1</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C80" s="1">
         <v>1280</v>
@@ -3378,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C81" s="1">
         <v>840</v>
@@ -3409,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C82" s="1">
         <v>1900</v>
@@ -3440,7 +3545,7 @@
         <v>1</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C83" s="1">
         <v>2160</v>
@@ -3471,13 +3576,13 @@
         <v>0</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C84" s="1">
         <v>420</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E84" s="1">
         <v>550</v>
@@ -3502,13 +3607,13 @@
         <v>0</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C85" s="1">
         <v>1344</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E85" s="1">
         <v>400</v>
@@ -3533,13 +3638,13 @@
         <v>0</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C86" s="1">
         <v>2736</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E86" s="1">
         <v>250</v>
@@ -3564,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C87" s="1">
         <v>4212</v>
@@ -3595,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C88" s="1">
         <v>4212</v>
@@ -3626,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C89" s="1">
         <v>1440</v>
@@ -3657,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C90" s="1">
         <v>3600</v>
@@ -3688,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C91" s="1">
         <v>3600</v>
@@ -3719,13 +3824,13 @@
         <v>0</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C92" s="1">
         <v>800</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E92" s="1">
         <v>200</v>
@@ -3750,13 +3855,13 @@
         <v>0</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C93" s="1">
         <v>432</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E93" s="1">
         <v>250</v>
@@ -3781,13 +3886,13 @@
         <v>0</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C94" s="1">
         <v>1800</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E94" s="1">
         <v>400</v>
@@ -3812,13 +3917,13 @@
         <v>0</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1">
         <v>1800</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E95" s="1">
         <v>450</v>
@@ -3843,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C96" s="1">
         <v>255</v>
@@ -3874,13 +3979,13 @@
         <v>1</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C97" s="1">
         <v>576</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E97" s="1">
         <v>450</v>
@@ -3905,13 +4010,13 @@
         <v>0</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C98" s="1">
         <v>576</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E98" s="1">
         <v>275</v>
@@ -3936,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C99" s="1">
         <v>180</v>
@@ -3967,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C100" s="1">
         <v>3276</v>
@@ -3998,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C101" s="1">
         <v>3276</v>
@@ -4029,7 +4134,7 @@
         <v>0</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C102" s="1">
         <v>312</v>
@@ -4060,13 +4165,13 @@
         <v>0</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C103" s="1">
         <v>408</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E103" s="1">
         <v>350</v>
@@ -4091,13 +4196,13 @@
         <v>0</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C104" s="1">
         <v>96</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E104" s="1">
         <v>0</v>
@@ -4122,13 +4227,13 @@
         <v>0</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C105" s="1">
         <v>180</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E105" s="1">
         <v>700</v>
@@ -4153,13 +4258,13 @@
         <v>0</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C106" s="1">
         <v>600</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E106" s="1">
         <v>500</v>
@@ -4184,13 +4289,13 @@
         <v>0</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C107" s="1">
         <v>336</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E107" s="1">
         <v>125</v>
@@ -4215,13 +4320,13 @@
         <v>0</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C108" s="1">
         <v>336</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E108" s="1">
         <v>125</v>
@@ -4246,13 +4351,13 @@
         <v>0</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C109" s="1">
         <v>528</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E109" s="1">
         <v>350</v>
@@ -4277,13 +4382,13 @@
         <v>0</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C110" s="1">
         <v>1872</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E110" s="1">
         <v>400</v>
@@ -4308,13 +4413,13 @@
         <v>0</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C111" s="1">
         <v>1872</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E111" s="1">
         <v>400</v>
@@ -4339,7 +4444,7 @@
         <v>0</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C112" s="1">
         <v>960</v>
@@ -4370,13 +4475,13 @@
         <v>0</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C113" s="1">
         <v>560</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E113" s="1">
         <v>80</v>
@@ -4401,13 +4506,13 @@
         <v>0</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C114" s="1">
         <v>1400</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E114" s="1">
         <v>80</v>
@@ -4432,13 +4537,13 @@
         <v>0</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C115" s="1">
         <v>720</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E115" s="1">
         <v>80</v>
@@ -4463,13 +4568,13 @@
         <v>0</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C116" s="1">
         <v>624</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E116" s="1">
         <v>300</v>
@@ -4494,13 +4599,13 @@
         <v>0</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C117" s="1">
         <v>624</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E117" s="1">
         <v>300</v>
@@ -4525,13 +4630,13 @@
         <v>0</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C118" s="1">
         <v>660</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E118" s="1">
         <v>500</v>
@@ -4556,13 +4661,13 @@
         <v>0</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C119" s="1">
         <v>2376</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E119" s="1">
         <v>400</v>
@@ -4587,13 +4692,13 @@
         <v>0</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C120" s="1">
         <v>2376</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E120" s="1">
         <v>500</v>
@@ -4618,13 +4723,13 @@
         <v>0</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C121" s="1">
         <v>240</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E121" s="1">
         <v>80</v>
@@ -4649,13 +4754,13 @@
         <v>0</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C122" s="1">
         <v>240</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E122" s="1">
         <v>80</v>
@@ -4680,13 +4785,13 @@
         <v>0</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C123" s="1">
         <v>864</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E123" s="1">
         <v>400</v>
@@ -4711,13 +4816,13 @@
         <v>0</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C124" s="1">
         <v>864</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E124" s="1">
         <v>400</v>
@@ -4742,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C125" s="1">
         <v>4800</v>
@@ -4773,7 +4878,7 @@
         <v>0</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C126" s="1">
         <v>2160</v>
@@ -4804,13 +4909,13 @@
         <v>0</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C127" s="1">
         <v>1260</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E127" s="1">
         <v>200</v>
@@ -4835,13 +4940,13 @@
         <v>0</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C128" s="1">
         <v>15600</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E128" s="1">
         <v>175</v>
@@ -4866,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C129" s="1">
         <v>192</v>
@@ -4897,13 +5002,13 @@
         <v>0</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C130" s="1">
         <v>768</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E130" s="1">
         <v>650</v>
@@ -4928,7 +5033,7 @@
         <v>0</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C131" s="1">
         <v>1280</v>
@@ -4959,7 +5064,7 @@
         <v>1</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C132" s="1">
         <v>960</v>
@@ -4990,7 +5095,7 @@
         <v>1</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C133" s="1">
         <v>1280</v>
@@ -5017,19 +5122,19 @@
       <c r="S133" s="1"/>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A134" s="1">
+      <c r="A134" s="6">
         <v>0</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C134" s="1">
+      <c r="B134" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C134" s="6">
         <v>5120</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="D134" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E134" s="1">
+      <c r="E134" s="6">
         <v>400</v>
       </c>
       <c r="F134" s="1"/>
@@ -5048,6 +5153,21 @@
       <c r="S134" s="1"/>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A135" s="8">
+        <v>0</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C135" s="8">
+        <v>960</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E135" s="8">
+        <v>450</v>
+      </c>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
@@ -5064,11 +5184,21 @@
       <c r="S135" s="1"/>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A136" s="1"/>
-      <c r="B136" s="2"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
+      <c r="A136" s="8">
+        <v>0</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C136" s="8">
+        <v>960</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E136" s="8">
+        <v>450</v>
+      </c>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
@@ -5085,11 +5215,21 @@
       <c r="S136" s="1"/>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A137" s="1"/>
-      <c r="B137" s="2"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
+      <c r="A137" s="8">
+        <v>0</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C137" s="8">
+        <v>960</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E137" s="8">
+        <v>450</v>
+      </c>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
@@ -5106,11 +5246,21 @@
       <c r="S137" s="1"/>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A138" s="1"/>
-      <c r="B138" s="2"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="1"/>
+      <c r="A138" s="8">
+        <v>0</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C138" s="8">
+        <v>960</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E138" s="8">
+        <v>450</v>
+      </c>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
@@ -5127,11 +5277,21 @@
       <c r="S138" s="1"/>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A139" s="1"/>
-      <c r="B139" s="2"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
+      <c r="A139" s="8">
+        <v>0</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C139" s="8">
+        <v>960</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E139" s="8">
+        <v>450</v>
+      </c>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
@@ -5148,11 +5308,21 @@
       <c r="S139" s="1"/>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A140" s="1"/>
-      <c r="B140" s="2"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
+      <c r="A140" s="8">
+        <v>0</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C140" s="8">
+        <v>960</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E140" s="8">
+        <v>450</v>
+      </c>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
@@ -5169,11 +5339,21 @@
       <c r="S140" s="1"/>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A141" s="1"/>
-      <c r="B141" s="2"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="1"/>
+      <c r="A141" s="8">
+        <v>0</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C141" s="8">
+        <v>960</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E141" s="8">
+        <v>450</v>
+      </c>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
@@ -5190,11 +5370,21 @@
       <c r="S141" s="1"/>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A142" s="1"/>
-      <c r="B142" s="2"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
+      <c r="A142" s="8">
+        <v>0</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C142" s="8">
+        <v>960</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E142" s="8">
+        <v>450</v>
+      </c>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
@@ -5211,11 +5401,21 @@
       <c r="S142" s="1"/>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A143" s="1"/>
-      <c r="B143" s="2"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
+      <c r="A143" s="8">
+        <v>0</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C143" s="8">
+        <v>960</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E143" s="8">
+        <v>450</v>
+      </c>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
@@ -5232,11 +5432,21 @@
       <c r="S143" s="1"/>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A144" s="1"/>
-      <c r="B144" s="2"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="1"/>
+      <c r="A144" s="8">
+        <v>0</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C144" s="8">
+        <v>960</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E144" s="8">
+        <v>450</v>
+      </c>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
@@ -5253,11 +5463,21 @@
       <c r="S144" s="1"/>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A145" s="1"/>
-      <c r="B145" s="2"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
+      <c r="A145" s="8">
+        <v>0</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C145" s="8">
+        <v>960</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E145" s="8">
+        <v>450</v>
+      </c>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
@@ -5274,11 +5494,21 @@
       <c r="S145" s="1"/>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A146" s="1"/>
-      <c r="B146" s="2"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
+      <c r="A146" s="8">
+        <v>0</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C146" s="8">
+        <v>960</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E146" s="8">
+        <v>450</v>
+      </c>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
@@ -5295,11 +5525,21 @@
       <c r="S146" s="1"/>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A147" s="1"/>
-      <c r="B147" s="2"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
+      <c r="A147" s="8">
+        <v>0</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C147" s="8">
+        <v>960</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E147" s="8">
+        <v>450</v>
+      </c>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
@@ -5316,11 +5556,21 @@
       <c r="S147" s="1"/>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A148" s="1"/>
-      <c r="B148" s="2"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
+      <c r="A148" s="8">
+        <v>0</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C148" s="8">
+        <v>960</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E148" s="8">
+        <v>450</v>
+      </c>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
@@ -5337,11 +5587,21 @@
       <c r="S148" s="1"/>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A149" s="1"/>
-      <c r="B149" s="2"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="1"/>
+      <c r="A149" s="8">
+        <v>0</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C149" s="8">
+        <v>960</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E149" s="8">
+        <v>450</v>
+      </c>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
@@ -5358,11 +5618,21 @@
       <c r="S149" s="1"/>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A150" s="1"/>
-      <c r="B150" s="2"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
-      <c r="E150" s="1"/>
+      <c r="A150" s="8">
+        <v>0</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C150" s="8">
+        <v>960</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E150" s="8">
+        <v>450</v>
+      </c>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
@@ -5379,11 +5649,21 @@
       <c r="S150" s="1"/>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A151" s="1"/>
-      <c r="B151" s="2"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
+      <c r="A151" s="8">
+        <v>0</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C151" s="8">
+        <v>960</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E151" s="8">
+        <v>450</v>
+      </c>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
@@ -5400,11 +5680,21 @@
       <c r="S151" s="1"/>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A152" s="1"/>
-      <c r="B152" s="2"/>
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
-      <c r="E152" s="1"/>
+      <c r="A152" s="8">
+        <v>0</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C152" s="8">
+        <v>960</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E152" s="8">
+        <v>450</v>
+      </c>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
@@ -5421,11 +5711,21 @@
       <c r="S152" s="1"/>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A153" s="1"/>
-      <c r="B153" s="2"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="1"/>
+      <c r="A153" s="8">
+        <v>0</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C153" s="8">
+        <v>960</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E153" s="8">
+        <v>450</v>
+      </c>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
@@ -5442,11 +5742,21 @@
       <c r="S153" s="1"/>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A154" s="1"/>
-      <c r="B154" s="2"/>
-      <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
-      <c r="E154" s="1"/>
+      <c r="A154" s="8">
+        <v>0</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C154" s="8">
+        <v>3840</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E154" s="1">
+        <v>250</v>
+      </c>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
@@ -5463,11 +5773,21 @@
       <c r="S154" s="1"/>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A155" s="1"/>
-      <c r="B155" s="2"/>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="1"/>
+      <c r="A155" s="8">
+        <v>0</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C155" s="8">
+        <v>4800</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E155" s="1">
+        <v>250</v>
+      </c>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
@@ -5484,11 +5804,21 @@
       <c r="S155" s="1"/>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A156" s="1"/>
-      <c r="B156" s="2"/>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
+      <c r="A156" s="8">
+        <v>0</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C156" s="8">
+        <v>3840</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E156" s="1">
+        <v>250</v>
+      </c>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
@@ -5505,11 +5835,21 @@
       <c r="S156" s="1"/>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A157" s="1"/>
-      <c r="B157" s="2"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
+      <c r="A157" s="8">
+        <v>0</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C157" s="8">
+        <v>4800</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E157" s="1">
+        <v>250</v>
+      </c>
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
@@ -5526,11 +5866,21 @@
       <c r="S157" s="1"/>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A158" s="1"/>
-      <c r="B158" s="2"/>
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="1"/>
+      <c r="A158" s="8">
+        <v>0</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C158" s="8">
+        <v>4800</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E158" s="1">
+        <v>250</v>
+      </c>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
@@ -5547,11 +5897,21 @@
       <c r="S158" s="1"/>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A159" s="1"/>
-      <c r="B159" s="2"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="1"/>
+      <c r="A159" s="8">
+        <v>0</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C159" s="8">
+        <v>5400</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E159" s="1">
+        <v>250</v>
+      </c>
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
@@ -23168,10 +23528,13 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  <conditionalFormatting sqref="B1:B134 B160:B1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B135:B159">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
